--- a/medicine/Mort/Cimetière_du_Nord_(Düsseldorf)/Cimetière_du_Nord_(Düsseldorf).xlsx
+++ b/medicine/Mort/Cimetière_du_Nord_(Düsseldorf)/Cimetière_du_Nord_(Düsseldorf).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(D%C3%BCsseldorf)</t>
+          <t>Cimetière_du_Nord_(Düsseldorf)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Nord (Nordfriedhof) est le cimetière le plus important de Düsseldorf, capitale de la Rhénanie-du-Nord-Westphalie, et le plus connu. Nombre de personnalités y reposent. Il s'étend sur 70 hectares au nord-ouest de Derendorf près de Golzheim et Unterrath. Il est délimité par la Ulmenstraße, la Hugo-Viehoff-Straße, la Danziger Straße et le Thewissenweg[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Nord (Nordfriedhof) est le cimetière le plus important de Düsseldorf, capitale de la Rhénanie-du-Nord-Westphalie, et le plus connu. Nombre de personnalités y reposent. Il s'étend sur 70 hectares au nord-ouest de Derendorf près de Golzheim et Unterrath. Il est délimité par la Ulmenstraße, la Hugo-Viehoff-Straße, la Danziger Straße et le Thewissenweg.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(D%C3%BCsseldorf)</t>
+          <t>Cimetière_du_Nord_(Düsseldorf)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière municipal a été ouvert en 1884 et abrite aujourd'hui environ 50 000 sépultures et la dépouille ou les cendres de 200 000 personnes. Il possède six entrées, l'entrée principale se situant au croisement de la Danziger Straße et de la Johannstraße. Près de l'entrée principale se trouve la partie la plus ancienne du cimetière sur 21 hectares. Depuis 1987, il est placé, ainsi que la chapelle du cimetière, sous la protection des monuments à préserver à cause du grand nombre de sépultures intéressantes, soit par leur aspect architectural ou artistique soit pour la notoriété historique des personnalités inhumées. La partie préservée la plus remarquable est le Millionenhügel, point culminant du cimetière, avec le plus de sépultures présentant un intérêt architectural[2]. Un nouveau petit cimetière juif (qui avait été ouvert en 1923, puis vandalisé) est accessible par l'entrée du 236 Ulmenstraße et présente des tombes modernes[3] ; il n'est pas administré par la municipalité et le cimetière du Nord de Düsseldorf, mais par la communauté locale juive. Il est fermé le sabbat, la nuit et les jours de fête.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière municipal a été ouvert en 1884 et abrite aujourd'hui environ 50 000 sépultures et la dépouille ou les cendres de 200 000 personnes. Il possède six entrées, l'entrée principale se situant au croisement de la Danziger Straße et de la Johannstraße. Près de l'entrée principale se trouve la partie la plus ancienne du cimetière sur 21 hectares. Depuis 1987, il est placé, ainsi que la chapelle du cimetière, sous la protection des monuments à préserver à cause du grand nombre de sépultures intéressantes, soit par leur aspect architectural ou artistique soit pour la notoriété historique des personnalités inhumées. La partie préservée la plus remarquable est le Millionenhügel, point culminant du cimetière, avec le plus de sépultures présentant un intérêt architectural. Un nouveau petit cimetière juif (qui avait été ouvert en 1923, puis vandalisé) est accessible par l'entrée du 236 Ulmenstraße et présente des tombes modernes ; il n'est pas administré par la municipalité et le cimetière du Nord de Düsseldorf, mais par la communauté locale juive. Il est fermé le sabbat, la nuit et les jours de fête.
 On remarque de nombreuses chapelles funéraires en forme de petites chapelles votives ainsi que des mausolées dans les différentes divisions du cimetière.
 			Mausolée de la famille des industriels Grillo dont la concession a été reprise par la famille Fieger dans les années 1960.
 			Chapelle funéraire de la famille Heyen construite en 1908 par Meng &amp; Liebetrau.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(D%C3%BCsseldorf)</t>
+          <t>Cimetière_du_Nord_(Düsseldorf)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,19 +562,21 @@
           <t>Sépultures remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme déjà mentionné, la partie ancienne de 21 hectares du cimetière, conçue par Eduard Hoppe[4] à l'époque, abrite un nombre particulièrement important de tombes splendides et insolites. Un grand nombre de tombes représentatives sont situées dans les divisions 61 à 64 sur la Millionenhügel (colline millionnaire) susmentionnée et autour de la chapelle près de l'entrée principale. Le nombre élevé de sépultures de familles industrielles est particulièrement frappant, ce qui souligne l'importance exceptionnelle de Düsseldorf en tant que métropole économique de l'ère wilhelminienne. Un certain nombre de sculpteurs, architectes et médailleurs célèbres de l'époque ont reçu des commandes pour ses sépultures. 
-Immédiatement à gauche de la chapelle et à proximité immédiate de l'entrée principale se trouve probablement la tombe la plus ancienne du cimetière Nord : la tombe de la famille Hoeltgen, qui a été réenterrée ici du cimetière de Golzheim immédiatement après l'ouverture du cimetière Nord. L'accent est mis ici sur le bronze, avec la sculpture d'une figure masculine représentant le Christ ressuscité qui se tient devant la porte d'un temple, suggérant l'entrée dans l'éternité. À proximité, également sur la gauche devant la chapelle, se détache le monument à l'industriel Jean Louis Piedbœuf. La base imposante avec une croix au sommet a été créée par le sculpteur Gustav Rutz qui a également utilisé des éléments de style baroque[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme déjà mentionné, la partie ancienne de 21 hectares du cimetière, conçue par Eduard Hoppe à l'époque, abrite un nombre particulièrement important de tombes splendides et insolites. Un grand nombre de tombes représentatives sont situées dans les divisions 61 à 64 sur la Millionenhügel (colline millionnaire) susmentionnée et autour de la chapelle près de l'entrée principale. Le nombre élevé de sépultures de familles industrielles est particulièrement frappant, ce qui souligne l'importance exceptionnelle de Düsseldorf en tant que métropole économique de l'ère wilhelminienne. Un certain nombre de sculpteurs, architectes et médailleurs célèbres de l'époque ont reçu des commandes pour ses sépultures. 
+Immédiatement à gauche de la chapelle et à proximité immédiate de l'entrée principale se trouve probablement la tombe la plus ancienne du cimetière Nord : la tombe de la famille Hoeltgen, qui a été réenterrée ici du cimetière de Golzheim immédiatement après l'ouverture du cimetière Nord. L'accent est mis ici sur le bronze, avec la sculpture d'une figure masculine représentant le Christ ressuscité qui se tient devant la porte d'un temple, suggérant l'entrée dans l'éternité. À proximité, également sur la gauche devant la chapelle, se détache le monument à l'industriel Jean Louis Piedbœuf. La base imposante avec une croix au sommet a été créée par le sculpteur Gustav Rutz qui a également utilisé des éléments de style baroque. 
 Dans la division voisine n° 6, l'on trouve la tombe des familles Breininger et Preuss qui attire l'attention avec une figure féminine en deuil en robe fluide. Plus au nord, dans la division 15, l'on remarque une autre tombe avec une figure féminine en deuil, c'est la tombe de Josef Ranker. La particularité de cette tombe est que la sculpture de la femme en question a été endommagée au cours d'un bombardement d'artillerie pendant la Seconde Guerre mondiale que l'on peut encore voir aujourd'hui à partir de quelques impacts de balles dans la sculpture.
-L'une des tombes les plus élaborées du cimetière Nord est la tombe familiale de l'industriel Robert Zapp (1837-1917) qui se dresse sur le promontoire et qui présente plusieurs éléments de style architectural et mélange des symboles du christianisme primitif et de l'antiquité. Le monument en forme de pignon, autrefois entouré d'une lourde chaîne, a une arcade soutenue par des colonnes au milieu, dans laquelle une urne en bronze se tenait sur une couronne de laurier ; Là, on remarque un serpent stylisé se mordre la queue, signe du retour infini de la vie. Au sommet du pignon se trouve une croix avec un halo et des capsules de graines de pavot au pied. Ce dernier est basé sur l'ancienne représentation connue sous le nom de symbole du sommeil éternel. Une pierre stylisée en forme de sarcophage est placée devant le monument. L'architecte Ernst Roeting a conçu cette tombe[5].
+L'une des tombes les plus élaborées du cimetière Nord est la tombe familiale de l'industriel Robert Zapp (1837-1917) qui se dresse sur le promontoire et qui présente plusieurs éléments de style architectural et mélange des symboles du christianisme primitif et de l'antiquité. Le monument en forme de pignon, autrefois entouré d'une lourde chaîne, a une arcade soutenue par des colonnes au milieu, dans laquelle une urne en bronze se tenait sur une couronne de laurier ; Là, on remarque un serpent stylisé se mordre la queue, signe du retour infini de la vie. Au sommet du pignon se trouve une croix avec un halo et des capsules de graines de pavot au pied. Ce dernier est basé sur l'ancienne représentation connue sous le nom de symbole du sommeil éternel. Une pierre stylisée en forme de sarcophage est placée devant le monument. L'architecte Ernst Roeting a conçu cette tombe.
 			Tombe Piedbœuf par Rutz.
 			Tombe Breininger et Preuss.
 			Sépulture en forme de temple de la famille Hilden-Eyckeler. L'entrée au caveau est décorée d'un ange  de mosaïques de Wilhelm Döringer. Le tombeau a été repris par Robert Gustav Zapp (1928–1999).
 			Sépulture de l'industriel Robert Zapp (1837-1917) construite par Ernst Roeting.
-À côté se trouve la sépulture de la famille des industriels Haniel et de la famille de l'artiste Oeder. Elle présente un haut obélisque de granite poli conçu par l'architecte Gottfried Wehling. À l'autre bout de la colline, dans la division 72, la sépulture de la famille de l'industriel Reinhold Lupp, est une sépulture murale de granite noir avec une niche au milieu montrant la statue du Christ. Celles des entrepreneurs  Rudolf von Bennigsen-Foerder, Ferdinand Heye et Heinrich Lueg sont également remarquables. La famille des industriels Henkel a fait ériger un monument imposant dans la division 75 en forme de temple conçu par Walter Furthmann avec une coupole de verre et une statue de femme assise de marbre blanc, sculptée par Karl Janssen, beau-père de Hugo Henkel[5].
+À côté se trouve la sépulture de la famille des industriels Haniel et de la famille de l'artiste Oeder. Elle présente un haut obélisque de granite poli conçu par l'architecte Gottfried Wehling. À l'autre bout de la colline, dans la division 72, la sépulture de la famille de l'industriel Reinhold Lupp, est une sépulture murale de granite noir avec une niche au milieu montrant la statue du Christ. Celles des entrepreneurs  Rudolf von Bennigsen-Foerder, Ferdinand Heye et Heinrich Lueg sont également remarquables. La famille des industriels Henkel a fait ériger un monument imposant dans la division 75 en forme de temple conçu par Walter Furthmann avec une coupole de verre et une statue de femme assise de marbre blanc, sculptée par Karl Janssen, beau-père de Hugo Henkel.
 Au nord de la colline, au bord d'une allée de la division 73, le visiteur peut voir deux sculptures funéraires non loin l'une de l'autre dans un style antiquisant. L'une (assise sur la sépulture Poetter) est l'œuvre d'August Bauer et l'autre un jeune homme nu de bronze tenant un bâton de marche par le Français Paul Landowski pour la famille Preis.
-Plus loin, l'on peut admirer à la division 85 la statue du Mineur avec sa lanterne. Il s'agit d'une édition de 1902 d'une statue de bronze de 1888 primée à plusieurs reprises d'Enrico Butti. C'est un hommage à l'industrie lourde dont Düsseldorf fut un des centres majeurs. Elle représente un mineur torse nu à demi allongé tenant une lanterne, un piolet aux pieds. Cette sculpture décorait à l'origine la sépulture de la famille von Gahlen, plus tard elle a été sur le mausolée de la famille des industriels Grillo. Lorsque celle-ci a perdu sa concession au profit de la famille Fieger au début des années 1960, l'architecte Wilhelm Dommel l'a placée dans un parc. Lorsque celui-ci a été supprimé, une association de Derendorf (Heimatverein Derendorfer Jonges) a appelé à son retour au cimetière du Nord, ce qui est fait en 1994[5].
+Plus loin, l'on peut admirer à la division 85 la statue du Mineur avec sa lanterne. Il s'agit d'une édition de 1902 d'une statue de bronze de 1888 primée à plusieurs reprises d'Enrico Butti. C'est un hommage à l'industrie lourde dont Düsseldorf fut un des centres majeurs. Elle représente un mineur torse nu à demi allongé tenant une lanterne, un piolet aux pieds. Cette sculpture décorait à l'origine la sépulture de la famille von Gahlen, plus tard elle a été sur le mausolée de la famille des industriels Grillo. Lorsque celle-ci a perdu sa concession au profit de la famille Fieger au début des années 1960, l'architecte Wilhelm Dommel l'a placée dans un parc. Lorsque celui-ci a été supprimé, une association de Derendorf (Heimatverein Derendorfer Jonges) a appelé à son retour au cimetière du Nord, ce qui est fait en 1994.
 			Sépulture Lueg.
 			Sépulture Preis.
 			Sépulture Poetter.
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Nord_(D%C3%BCsseldorf)</t>
+          <t>Cimetière_du_Nord_(Düsseldorf)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,12 +611,49 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">  Personnalité inhumée au cimetière du Nord de Düsseldorf 
 Feld (littéralement: champ) signifie section du cimetière.
-Nordfriedhof A–G
-.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Nord_(Düsseldorf)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Nord_(D%C3%BCsseldorf)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nordfriedhof A–G</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>.
 Andreas Achenbach (1815–1910), peintre, citoyen d'honneur (Feld 50, Nr. 5 a–d)
 Oswald Achenbach (1827–1905), peintre, frère du précédent, citoyen d'honneur (Feld 27, Nr. 10 a–d)
 Benno von Achenbach (1861-1936), fils du précédent, écuyer de Guillaume II, créateur d'un système d'attelage
@@ -631,9 +684,43 @@
 Eduard von Gebhardt (1838–1925), peintre, citoyen d'honneur (Feld 62, Nr. 46 1–4)
 Gotthard Graubner (1930–2013), peintre
 Cornelius Gurlitt (1932–2014), collectionneur d'art (Feld 56)
-Hildebrand Gurlitt (1895–1956), marchand d'art (Feld 56)
-Nordfriedhof H–O
-Franz Haniel junior (1842–1916), industriel, petit-fils du fondateur Franz Haniel (Feld 62)
+Hildebrand Gurlitt (1895–1956), marchand d'art (Feld 56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Nord_(Düsseldorf)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Nord_(D%C3%BCsseldorf)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nordfriedhof H–O</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Franz Haniel junior (1842–1916), industriel, petit-fils du fondateur Franz Haniel (Feld 62)
 Heinrich Held (1897–1957), théologien luthérien (Feld 56e)
 Friedrich Karl Henkel (1848–1930), industriel (Feld 75)
 Helmut Hentrich (1905–2001), architecte, citoyen d'honneur (Feld 25, Nr. 25a–25b)
@@ -668,9 +755,43 @@
 Hans Müller-Schlösser (1884–1956), poète régionaliste (Feld U16, Nr. 80)
 William Thomas Mulvany (1806–1885), industriel (Feld 62/43a, Nr. 1–4)
 Hans-Jürgen Nierentz (1909–1995), écrivain et homme de télévision (Feld 117)
-Georg Oeder (1846–1931), peintre (Feld 62)
-Nordfriedhof P–Z
-Jean-Louis Piedboeuf (1838–1891), industriel (Feld 5)
+Georg Oeder (1846–1931), peintre (Feld 62)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Nord_(Düsseldorf)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Nord_(D%C3%BCsseldorf)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nordfriedhof P–Z</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jean-Louis Piedboeuf (1838–1891), industriel (Feld 5)
 Gustav Poensgen (1824–1904), industriel (Feld 62)
 Hermann Pohle (1831-1901), peintre
 Hermann Emil Pohle (1863-1914), fils du précédent, peintre
@@ -709,31 +830,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_du_Nord_(D%C3%BCsseldorf)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Nord_(Düsseldorf)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Nord_(D%C3%BCsseldorf)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Carré des victimes de la Première Guerre mondiale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Un grand carré militaire (Ehrenfeld) est ouvert dans les années 1920 pour 1 595 tombés de la Première Guerre mondiale. Pour chaque sépulture, une dalle de basalte avec les détails des morts est incrustée dans la pelouse. Le monument en calcaire coquillier (Jésus accueillant trois morts de chaque côté) a été construit par le sculpteur Hermann Nolte sur les plans d'Hermann Görke.
 </t>
